--- a/Titus/Gurobi code/Final/Input/J-Vrijdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/J-Vrijdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5098E673-57D8-4DA2-A104-8CE202F3240C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7317C2FA-7A7F-467D-B6C0-226954C83723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{AD949A82-0C2A-4ED5-8951-8D44A7C77912}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{022CC1F8-B9CB-4308-B625-A5A0BC23355E}"/>
   </bookViews>
   <sheets>
     <sheet name="Friday" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D316179-9FA3-4372-AEC3-2234D7C17B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A956C6-5659-4DDA-8082-EE8A0F23D17B}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,13 +480,13 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>4736.53316507611</v>
+        <v>4736</v>
       </c>
       <c r="C1">
-        <v>3696.80637274233</v>
+        <v>3697</v>
       </c>
       <c r="D1">
-        <v>3350.2307752977358</v>
+        <v>3351</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>5371.9217603911984</v>
+        <v>5371</v>
       </c>
       <c r="C2">
-        <v>4101.1445697610216</v>
+        <v>4101</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5718.4973578357913</v>
+        <v>5717</v>
       </c>
       <c r="C3">
-        <v>5140.8713620948029</v>
+        <v>5140</v>
       </c>
       <c r="D3">
-        <v>3176.9429765754398</v>
+        <v>3178</v>
       </c>
       <c r="E3">
-        <v>2888.1299787049452</v>
+        <v>2889</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>3003.655177853143</v>
+        <v>3004</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -560,10 +560,10 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>5371.9217603911984</v>
+        <v>5371</v>
       </c>
       <c r="C5">
-        <v>3581.2811735941318</v>
+        <v>3582</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -580,16 +580,16 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>5660.7347582616931</v>
+        <v>5660</v>
       </c>
       <c r="C6">
-        <v>4794.2957646502091</v>
+        <v>4794</v>
       </c>
       <c r="D6">
-        <v>3350.2307752977358</v>
+        <v>3351</v>
       </c>
       <c r="E6">
-        <v>3350.2307752977358</v>
+        <v>3351</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>4909.8209637984073</v>
+        <v>4909</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>3465.755974445934</v>
+        <v>3466</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>4678.7705655020109</v>
+        <v>4678</v>
       </c>
       <c r="C10">
-        <v>3350.2307752977358</v>
+        <v>3351</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>5718.4973578357913</v>
+        <v>5717</v>
       </c>
       <c r="C11">
-        <v>4621.0079659279127</v>
+        <v>4621</v>
       </c>
       <c r="D11">
-        <v>3754.5689723164292</v>
+        <v>3755</v>
       </c>
       <c r="E11">
-        <v>2541.5543812603519</v>
+        <v>2543</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>4101.1445697610216</v>
+        <v>4101</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>5545.2095591134948</v>
+        <v>5544</v>
       </c>
       <c r="C13">
-        <v>3927.856771038726</v>
+        <v>3928</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>3812.3315718905278</v>
+        <v>3812</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>4216.6697689092198</v>
+        <v>4217</v>
       </c>
       <c r="C16">
-        <v>3350.2307752977358</v>
+        <v>3351</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>3985.6193706128238</v>
+        <v>3986</v>
       </c>
       <c r="C17">
-        <v>3407.9933748718349</v>
+        <v>3408</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>3350.2307752977358</v>
+        <v>3351</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>4101.1445697610216</v>
+        <v>4101</v>
       </c>
       <c r="C20">
-        <v>3927.856771038726</v>
+        <v>3928</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>4678.7705655020109</v>
+        <v>4678</v>
       </c>
       <c r="C21">
-        <v>3407.9933748718349</v>
+        <v>3408</v>
       </c>
       <c r="D21">
-        <v>3292.4681757236381</v>
+        <v>3293</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -900,16 +900,16 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>5487.4469595393957</v>
+        <v>5486</v>
       </c>
       <c r="C22">
-        <v>4043.3819701869229</v>
+        <v>4043</v>
       </c>
       <c r="D22">
-        <v>3812.3315718905278</v>
+        <v>3812</v>
       </c>
       <c r="E22">
-        <v>2368.266582538055</v>
+        <v>2369</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>4563.2453663538136</v>
+        <v>4563</v>
       </c>
       <c r="C24">
-        <v>4332.194968057418</v>
+        <v>4332</v>
       </c>
       <c r="D24">
-        <v>3003.655177853143</v>
+        <v>3004</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>4274.4323684833189</v>
+        <v>4274</v>
       </c>
       <c r="C25">
-        <v>4158.9071693351216</v>
+        <v>4159</v>
       </c>
       <c r="D25">
-        <v>4101.1445697610216</v>
+        <v>4101</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>5487.4469595393957</v>
+        <v>5486</v>
       </c>
       <c r="C26">
-        <v>5429.6843599652984</v>
+        <v>5429</v>
       </c>
       <c r="D26">
-        <v>3985.6193706128238</v>
+        <v>3986</v>
       </c>
       <c r="E26">
-        <v>2657.0795804085501</v>
+        <v>2658</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>4158.9071693351216</v>
+        <v>4159</v>
       </c>
       <c r="C27">
-        <v>4043.3819701869229</v>
+        <v>4043</v>
       </c>
       <c r="D27">
-        <v>2888.1299787049452</v>
+        <v>2889</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>2888.1299787049452</v>
+        <v>2889</v>
       </c>
       <c r="C28">
         <v>0</v>
